--- a/PRACTICAS/PRACTICA_4/Punto16.xlsx
+++ b/PRACTICAS/PRACTICA_4/Punto16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Agus\Escritorio\Facultad\2DO AÑO\2do_Semestre\ISO\PRACTICAS\PRACTICA_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A02E4A9-E25E-4125-9DAD-7B3665799572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487FC5E7-247C-478D-BF85-651A1924001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{270FEE8B-2F88-4B96-AD3C-9B26A76D4DB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
   <si>
     <t>Proceso</t>
   </si>
@@ -143,17 +143,20 @@
     <t>16.4</t>
   </si>
   <si>
-    <t>Apropiativo (deberia revisarlo)</t>
-  </si>
-  <si>
-    <t>22.2</t>
+    <t>Apropiativo</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>15.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +178,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +333,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43D61F8-9C20-4436-9A70-CC144767DDE1}">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,589 +1510,651 @@
       <c r="AM13" s="14"/>
       <c r="AN13" s="5"/>
     </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>8</v>
+      </c>
+      <c r="O17" s="1">
+        <v>9</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>11</v>
+      </c>
+      <c r="R17" s="1">
+        <v>12</v>
+      </c>
+      <c r="S17" s="1">
+        <v>13</v>
+      </c>
+      <c r="T17" s="1">
+        <v>14</v>
+      </c>
+      <c r="U17" s="1">
+        <v>15</v>
+      </c>
+      <c r="V17" s="1">
+        <v>16</v>
+      </c>
+      <c r="W17" s="1">
+        <v>17</v>
+      </c>
+      <c r="X17" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>25</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>26</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>27</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>28</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>29</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>30</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>31</v>
+      </c>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="18">
         <v>3</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="18">
         <v>4</v>
       </c>
-      <c r="K18" s="1">
+      <c r="J18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18">
         <v>5</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="18">
         <v>6</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="18">
         <v>7</v>
       </c>
-      <c r="N18" s="1">
+      <c r="S18" s="18">
         <v>8</v>
       </c>
-      <c r="O18" s="1">
+      <c r="T18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18">
+        <v>18</v>
+      </c>
+      <c r="AN18" s="18">
         <v>9</v>
-      </c>
-      <c r="P18" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>11</v>
-      </c>
-      <c r="R18" s="1">
-        <v>12</v>
-      </c>
-      <c r="S18" s="1">
-        <v>13</v>
-      </c>
-      <c r="T18" s="1">
-        <v>14</v>
-      </c>
-      <c r="U18" s="1">
-        <v>15</v>
-      </c>
-      <c r="V18" s="1">
-        <v>16</v>
-      </c>
-      <c r="W18" s="1">
-        <v>17</v>
-      </c>
-      <c r="X18" s="1">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>21</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>22</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>24</v>
-      </c>
-      <c r="AE18" s="9">
-        <v>25</v>
-      </c>
-      <c r="AF18" s="9">
-        <v>26</v>
-      </c>
-      <c r="AG18" s="9">
-        <v>27</v>
-      </c>
-      <c r="AH18" s="9">
-        <v>28</v>
-      </c>
-      <c r="AI18" s="9">
-        <v>29</v>
-      </c>
-      <c r="AJ18" s="9">
-        <v>30</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>31</v>
-      </c>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18">
+        <v>2</v>
+      </c>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18">
         <v>3</v>
       </c>
-      <c r="I19" s="1">
+      <c r="Y19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18">
         <v>4</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>6</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>7</v>
-      </c>
-      <c r="R19" s="1">
-        <v>8</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>8</v>
+      <c r="AC19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18">
+        <v>25</v>
+      </c>
+      <c r="AN19" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18">
         <v>3</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="17" t="s">
+      <c r="AI20" s="18">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18">
         <v>30</v>
       </c>
-      <c r="Y20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1">
+      <c r="AN20" s="18">
         <v>25</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18">
+        <v>2</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="18">
         <v>5</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AJ21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1">
-        <v>30</v>
-      </c>
-      <c r="AN21" s="1">
+      <c r="AB21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18">
         <v>25</v>
+      </c>
+      <c r="AN21" s="18">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="18">
+        <v>2</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>4</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1">
-        <v>2</v>
-      </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1">
+      <c r="AN22" s="18">
         <v>6</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1">
-        <v>25</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
         <v>5</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1">
-        <v>2</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1">
-        <v>3</v>
-      </c>
-      <c r="T23" s="1">
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
+      <c r="L23" s="19">
+        <v>5</v>
+      </c>
+      <c r="M23" s="19">
+        <v>1</v>
+      </c>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN23" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19">
         <v>4</v>
       </c>
-      <c r="U23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="W23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1">
-        <v>14</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>5</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>16</v>
-      </c>
+      <c r="H24" s="19">
+        <v>2</v>
+      </c>
+      <c r="I24" s="19">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19">
+        <v>2</v>
+      </c>
+      <c r="K24" s="19">
+        <v>4</v>
+      </c>
+      <c r="L24" s="19">
+        <v>2</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2</v>
+      </c>
+      <c r="N24" s="19">
+        <v>4</v>
+      </c>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -2072,204 +2162,141 @@
       <c r="C25" s="5"/>
       <c r="D25" s="13"/>
       <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>4</v>
-      </c>
-      <c r="J25" s="4">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4">
-        <v>2</v>
-      </c>
-      <c r="L25" s="4">
-        <v>2</v>
-      </c>
-      <c r="M25" s="4">
-        <v>4</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="19">
+        <v>3</v>
+      </c>
+      <c r="G25" s="19">
+        <v>3</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4">
-        <v>3</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>3</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4">
-        <v>4</v>
-      </c>
-      <c r="H29" s="4">
-        <v>4</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="E30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4">
-        <v>2</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>